--- a/Misc/Excel/MonsterColonyCfg.xlsx
+++ b/Misc/Excel/MonsterColonyCfg.xlsx
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -1207,13 +1207,13 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>1344</v>
+        <v>2333</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
       </c>
       <c r="H6">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
